--- a/assets uarm/2019 sol-penscri-justfilpol/Documentos para S E B/frankfurt ctrl 1/registroDeNotasFrnkfrCtrl1.xlsx
+++ b/assets uarm/2019 sol-penscri-justfilpol/Documentos para S E B/frankfurt ctrl 1/registroDeNotasFrnkfrCtrl1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>respuesta 1 ob</t>
   </si>
@@ -57,13 +57,22 @@
   </si>
   <si>
     <t xml:space="preserve">Isis Aide Peralta </t>
+  </si>
+  <si>
+    <t>Carlos Orrego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel Alexander Palacios Díaz </t>
+  </si>
+  <si>
+    <t>Diego Vargas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,20 +81,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
@@ -93,29 +88,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,22 +163,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G15"/>
+  <dimension ref="A2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,120 +487,251 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
+      <c r="E7" s="4">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
         <v>16</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D9">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
         <v>7</v>
       </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
+      <c r="E9" s="4">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4">
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D11">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
         <v>6</v>
       </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
+      <c r="E11" s="4">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4">
         <v>16</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D13">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
         <v>6</v>
       </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="4">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4">
         <v>6</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <v>17</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
         <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10">
+        <v>6</v>
+      </c>
+      <c r="E17" s="10">
+        <v>5</v>
+      </c>
+      <c r="F17" s="10">
+        <v>5</v>
+      </c>
+      <c r="G17" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10">
+        <v>5</v>
+      </c>
+      <c r="E19" s="10">
+        <v>5</v>
+      </c>
+      <c r="F19" s="10">
+        <v>3</v>
+      </c>
+      <c r="G19" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10">
+        <v>4</v>
+      </c>
+      <c r="E21" s="10">
+        <v>4</v>
+      </c>
+      <c r="F21" s="10">
+        <v>4</v>
+      </c>
+      <c r="G21" s="10">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
